--- a/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
+++ b/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
@@ -451,603 +451,813 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8834</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5792</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4512</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>410007</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>华富价值增长混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>80.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.54</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>217005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商先锋混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>67.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004852</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004853</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>270002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发稳健增长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>54.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160916</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>410003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华富成长趋势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001563</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华富健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008075</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商核心优选股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008076</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商核心优选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009398</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华富成长企业精选股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>73.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004852</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发价值回报混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20.46</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004853</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发价值回报混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003152</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003153</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009326</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发稳健增长混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>54.55</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006364</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商丰韵混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006365</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商丰韵混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007066</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007067</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003291</t>
+          <t>270002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银健康中国灵活配置混合</t>
+          <t>广发稳健增长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>266.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>49.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0299</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010045</t>
+          <t>009808</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富稳健添盈一年持有期混合</t>
+          <t>易方达创新成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>60.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4809</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501007</t>
+          <t>000404</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+          <t>易方达新兴成长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>46.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9950</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501008</t>
+          <t>001417</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+          <t>汇添富医疗服务灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>46.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>410007</t>
+          <t>010488</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华富价值增长混合</t>
+          <t>鹏华优选成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>54.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4985</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>270002</t>
+          <t>010045</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发稳健增长混合A</t>
+          <t>汇添富稳健添盈一年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49.23</t>
+          <t>144.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4728</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009326</t>
+          <t>010391</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发稳健增长混合C</t>
+          <t>易方达战略新兴产业股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>49.23</t>
+          <t>95.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009808</t>
+          <t>160916</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达创新成长混合</t>
+          <t>大成优选混合(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>38.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3314</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000404</t>
+          <t>001230</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达新兴成长灵活配置混合</t>
+          <t>鹏华医药科技股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>19.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010054</t>
+          <t>410003</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家健康产业混合A</t>
+          <t>华富成长趋势混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8698</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010055</t>
+          <t>970016</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家健康产业混合C</t>
+          <t>中信建投价值增长混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>39.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8228</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>410003</t>
+          <t>007066</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华富成长趋势混合</t>
+          <t>浦银安盛先进制造混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4825</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010391</t>
+          <t>009398</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达战略新兴产业股票A</t>
+          <t>华富成长企业精选股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010392</t>
+          <t>007067</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达战略新兴产业股票C</t>
+          <t>浦银安盛先进制造混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010488</t>
+          <t>003291</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合A</t>
+          <t>信达澳银健康中国灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010489</t>
+          <t>160921</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合C</t>
+          <t>大成多策略混合(LOF)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007066</t>
+          <t>970017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浦银安盛先进制造混合A</t>
+          <t>中信建投价值增长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007067</t>
+          <t>410007</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浦银安盛先进制造混合C</t>
+          <t>华富价值增长混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001230</t>
+          <t>009326</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华医药科技股票</t>
+          <t>广发稳健增长混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>49.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001417</t>
+          <t>004877</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合</t>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001563</t>
+          <t>004878</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华富健康文娱灵活配置混合</t>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001861</t>
+          <t>004879</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合</t>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>160916</t>
+          <t>003152</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大成优选混合(LOF)</t>
+          <t>华富天鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>160921</t>
+          <t>010054</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>大成多策略混合(LOF)</t>
+          <t>万家健康产业混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>80.52</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003152</t>
+          <t>008107</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华富天鑫灵活配置混合A</t>
+          <t>华商医药医疗行业股票</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>003153</t>
+          <t>010392</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华富天鑫灵活配置混合C</t>
+          <t>易方达战略新兴产业股票C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008107</t>
+          <t>010489</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华商医药医疗行业股票</t>
+          <t>鹏华优选成长混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>004877</t>
+          <t>501007</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>80.52</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004878</t>
+          <t>001861</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+          <t>富安达健康人生灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>80.52</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>004879</t>
+          <t>501008</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>80.52</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009398</t>
+          <t>003153</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华富成长企业精选股票</t>
+          <t>华富天鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>970016</t>
+          <t>001563</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中信建投价值增长混合A</t>
+          <t>华富健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>64.74</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1994,25 +2534,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>970017</t>
+          <t>010055</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中信建投价值增长混合C</t>
+          <t>万家健康产业混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>64.74</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
+++ b/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2569,4 +2570,666 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7100</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
+++ b/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3232,4 +3233,1122 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7456</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5674</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3681</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
+++ b/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4351,4 +4352,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
+++ b/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4360,7 +4361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4371,17 +4372,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4391,14 +4412,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.38</v>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4407,14 +4450,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.17</v>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4423,14 +4488,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.39</v>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9307</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4439,13 +4526,1403 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6963</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4558</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4365</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
+++ b/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5821,7 +5822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5832,17 +5833,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5852,14 +5873,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.16</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5868,14 +5911,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.38</v>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5884,14 +5949,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.17</v>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5900,14 +5987,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.39</v>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5916,13 +6025,1003 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4979</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
+++ b/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6904,7 +6905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6915,17 +6916,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6935,14 +6956,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.16</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6951,14 +6994,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.16</v>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6967,14 +7032,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.38</v>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1567</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6983,14 +7070,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.17</v>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0152</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6999,14 +7108,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.39</v>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -7015,13 +7146,1703 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6812</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6577</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6392</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012264</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
+++ b/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>12.67</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>9.16</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>10.16</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>5.38</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>5.17</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>23.39</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.31</v>
       </c>
     </row>
@@ -600,6 +617,2188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7902</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6244</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6085</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4279</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3768</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2854</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012264</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2403,7 +4602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3485,7 +5684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4945,7 +7144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6063,7 +8262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6725,7 +8924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8035,7 +10234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
+++ b/数据整理/stocks/A股/上证主板/603939-益丰药房.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>11.6</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>12.67</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>9.16</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>10.16</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>5.38</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>5.17</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>23.39</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,846 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>20</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>12.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8834</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5792</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4512</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004852</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004853</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1450,2986 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6690</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6673</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0139</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华富利精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0043</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7933</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7392</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6143</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4178</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3067</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015303</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014121</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015304</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014122</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>017213</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2798,7 +6611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4602,7 +8415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5684,7 +9497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7144,7 +10957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8262,7 +12075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8924,7 +12737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10232,820 +14045,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>270002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发稳健增长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>282.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>54.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.9382</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160916</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>43.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3037</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>410003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华富成长趋势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8834</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>217005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商先锋混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>67.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5792</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008075</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商核心优选股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5188</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007066</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5095</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009398</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华富成长企业精选股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4512</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007067</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2212</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006364</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商丰韵混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1461</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009326</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发稳健增长混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>54.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1454</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>410007</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华富价值增长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1246</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1101</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003152</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1065</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004852</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发价值回报混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.46</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0922</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006365</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商丰韵混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0845</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>73.55</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0426</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008076</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商核心优选股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001563</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华富健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004853</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发价值回报混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.46</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003153</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>